--- a/Modello/nuovi modelli/inputTesiOriginali/Input-Output-6.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/Input-Output-6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test-1" sheetId="3" r:id="rId1"/>
@@ -336,13 +336,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1043,7 +1043,7 @@
       <c r="A4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>181465</v>
       </c>
       <c r="C4" s="8">
@@ -1159,7 +1159,7 @@
       <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>44388</v>
       </c>
       <c r="C5" s="8">
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2934,7 +2934,7 @@
       <c r="A4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>181465</v>
       </c>
       <c r="C4" s="8">
@@ -3050,7 +3050,7 @@
       <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>44388</v>
       </c>
       <c r="C5" s="8">
@@ -3166,7 +3166,7 @@
       <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>5</v>
       </c>
       <c r="C6" s="8">
@@ -3291,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4931,7 +4931,7 @@
       <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>5</v>
       </c>
       <c r="C4" s="8">
@@ -5047,7 +5047,7 @@
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>181465</v>
       </c>
       <c r="C5" s="8">
@@ -5163,7 +5163,7 @@
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>44388</v>
       </c>
       <c r="C6" s="8">
@@ -5287,8 +5287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL6" sqref="B4:AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6927,7 +6927,7 @@
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>181465</v>
       </c>
       <c r="C4" s="8">
@@ -7043,7 +7043,7 @@
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>44388</v>
       </c>
       <c r="C5" s="8">
@@ -7430,7 +7430,7 @@
       <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>5</v>
       </c>
       <c r="C10" s="8">
@@ -7551,8 +7551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:O6"/>
+    <sheetView tabSelected="1" topLeftCell="AD4" workbookViewId="0">
+      <selection activeCell="AL6" sqref="B6:AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7588,124 +7588,124 @@
     <col min="38" max="38" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -7820,8 +7820,8 @@
         <v>168295</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="7">
@@ -7936,11 +7936,11 @@
         <v>981</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:38" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>181465</v>
       </c>
       <c r="C4" s="8">
@@ -8052,11 +8052,11 @@
         <v>429413</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>44388</v>
       </c>
       <c r="C5" s="8">
@@ -8168,155 +8168,155 @@
         <v>397323</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:38" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="15">
         <f xml:space="preserve"> 1 / (0.5 +B9)</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="15">
         <f t="shared" ref="C6:AL6" si="0" xml:space="preserve"> 1 / (0.5 +C9)</f>
         <v>3.7735849056603772E-2</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="15">
         <f t="shared" si="0"/>
         <v>3.1298904538341159E-3</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="15">
         <f t="shared" si="0"/>
         <v>8.6956521739130432E-2</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="15">
         <f t="shared" si="0"/>
         <v>1.9047619047619049E-2</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="15">
         <f t="shared" si="0"/>
         <v>1.06951871657754E-2</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="15">
         <f t="shared" si="0"/>
         <v>8.8105726872246704E-3</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="15">
         <f t="shared" si="0"/>
         <v>9.7799511002444979E-4</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="15">
         <f t="shared" si="0"/>
         <v>7.4906367041198503E-3</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="15">
         <f t="shared" si="0"/>
         <v>1.226241569589209E-3</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="15">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="15">
         <f t="shared" si="0"/>
         <v>1.3726835964310226E-3</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="15">
         <f t="shared" si="0"/>
         <v>4.2553191489361701E-2</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="15">
         <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="15">
         <f t="shared" si="0"/>
         <v>1.3793103448275862E-2</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="15">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="15">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="15">
         <f t="shared" si="0"/>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="15">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W6" s="15">
         <f t="shared" si="0"/>
         <v>0.11764705882352941</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X6" s="15">
         <f t="shared" si="0"/>
         <v>1.0810810810810811E-2</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="Y6" s="15">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="Z6" s="13">
+      <c r="Z6" s="15">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="AA6" s="13">
+      <c r="AA6" s="15">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="AB6" s="13">
+      <c r="AB6" s="15">
         <f t="shared" si="0"/>
         <v>4.878048780487805E-2</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AC6" s="15">
         <f t="shared" si="0"/>
         <v>6.8259385665529011E-3</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AD6" s="15">
         <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="AE6" s="13">
+      <c r="AE6" s="15">
         <f t="shared" si="0"/>
         <v>0.11764705882352941</v>
       </c>
-      <c r="AF6" s="13">
+      <c r="AF6" s="15">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="AG6" s="13">
+      <c r="AG6" s="15">
         <f t="shared" si="0"/>
         <v>6.1162079510703364E-3</v>
       </c>
-      <c r="AH6" s="13">
+      <c r="AH6" s="15">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="AI6" s="13">
+      <c r="AI6" s="15">
         <f t="shared" si="0"/>
         <v>4.5558086560364463E-3</v>
       </c>
-      <c r="AJ6" s="13">
+      <c r="AJ6" s="15">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="AK6" s="13">
+      <c r="AK6" s="15">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="AL6" s="13">
+      <c r="AL6" s="15">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
@@ -8330,7 +8330,7 @@
       <c r="A9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>5</v>
       </c>
       <c r="C9" s="8">
@@ -8452,7 +8452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:AL4"/>
     </sheetView>
   </sheetViews>
@@ -8760,7 +8760,7 @@
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>181465</v>
       </c>
       <c r="C3" s="8">
@@ -8876,7 +8876,7 @@
       <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>44388</v>
       </c>
       <c r="C4" s="8">
@@ -8997,8 +8997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL6" sqref="B5:AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9475,7 +9475,7 @@
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>181465</v>
       </c>
       <c r="C5" s="8">
@@ -9591,7 +9591,7 @@
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>44388</v>
       </c>
       <c r="C6" s="8">
@@ -9712,8 +9712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:O4"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10226,7 +10226,7 @@
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>181465</v>
       </c>
       <c r="C5" s="8">
@@ -10342,7 +10342,7 @@
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>44388</v>
       </c>
       <c r="C6" s="8">
